--- a/resources/vocabulary-source-generation/src/main/resources/Care_Pathway_Data_Elements.xlsx
+++ b/resources/vocabulary-source-generation/src/main/resources/Care_Pathway_Data_Elements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="222">
   <si>
     <t xml:space="preserve">PRE TEST (at the time WES is ordered)</t>
   </si>
@@ -68,7 +68,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -80,9 +80,9 @@
         <b val="true"/>
         <i val="true"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">other </t>
@@ -91,7 +91,7 @@
       <rPr>
         <b val="true"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -101,12 +101,12 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> has your patient had in the past 1 year?</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> has your patient had in the past?</t>
     </r>
   </si>
   <si>
@@ -129,7 +129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">not</t>
@@ -203,7 +203,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">MODULE B - only date of data entry is required</t>
+    <t xml:space="preserve">MODULE B - only date of data entry is required; </t>
   </si>
   <si>
     <t xml:space="preserve">POST TEST (within 1 week of reporting results to patient)</t>
@@ -366,7 +366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">diagnostic</t>
@@ -390,7 +390,19 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">did not</t>
+      <t xml:space="preserve">did </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">not</t>
     </r>
     <r>
       <rPr>
@@ -441,7 +453,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">partially-diagnostic</t>
@@ -685,7 +697,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">partially diagnostic</t>
@@ -744,9 +756,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">MODULE B - </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -763,7 +772,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">non-diagnostic</t>
@@ -1097,7 +1106,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Karyotype, Microarray, FISH, Custom FISH  (i.e. novel variant), Chromosome breakage, Mosaicism testing, other</t>
+    <t xml:space="preserve">karyotype, microarray, FISH, custom FISH  (i.e. novel variant), chromosome breakage, mosaicism testing, other</t>
   </si>
   <si>
     <t xml:space="preserve">Y/ No is internal default</t>
@@ -1106,7 +1115,36 @@
     <t xml:space="preserve">Molecular </t>
   </si>
   <si>
-    <t xml:space="preserve">Known mutation, Single gene, Gene panel, Clinical exome sequencing singleton, Epigenetic testing (i.e. methylation study), other</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">known mutation, single gene, gene panel/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">custom panel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, clinical exome sequencing singleton, epigenetic testing (i.e. methylation study), other</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Y/N</t>
@@ -1115,61 +1153,61 @@
     <t xml:space="preserve">Metabolic </t>
   </si>
   <si>
-    <t xml:space="preserve">Amino acids </t>
+    <t xml:space="preserve">amino acids </t>
   </si>
   <si>
     <t xml:space="preserve">blood, urine, CSF, dried blood spots, other</t>
   </si>
   <si>
-    <t xml:space="preserve">Organic acids</t>
+    <t xml:space="preserve">organic acids</t>
   </si>
   <si>
     <t xml:space="preserve">urine, dried blood spots, other</t>
   </si>
   <si>
-    <t xml:space="preserve">Very long chain fatty acids</t>
+    <t xml:space="preserve">very long chain fatty acids</t>
   </si>
   <si>
     <t xml:space="preserve">blood, other</t>
   </si>
   <si>
-    <t xml:space="preserve">Congenital disorders of glycosylation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acylcarnitines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total free carnitine</t>
+    <t xml:space="preserve">congenital disorders of glycosylation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acylcarnitines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total free carnitine</t>
   </si>
   <si>
     <t xml:space="preserve">blood, urine</t>
   </si>
   <si>
-    <t xml:space="preserve">Oligosaccharides</t>
+    <t xml:space="preserve">oligosaccharides</t>
   </si>
   <si>
     <t xml:space="preserve">urine, other</t>
   </si>
   <si>
-    <t xml:space="preserve">Mucopolysaccharidosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purines/pyrimidines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional testing - single enzymes</t>
+    <t xml:space="preserve">mucopolysaccharidosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purines/pyrimidines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">functional testing - single enzymes</t>
   </si>
   <si>
     <t xml:space="preserve">serum, erythtrocytes, fibroblasts, leukocytes, dried blood spots, liver, heart, kidney, muscle, other</t>
   </si>
   <si>
-    <t xml:space="preserve">Functional testing - respiratory chain panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homocysteine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creatine metabolites/creatine panel</t>
+    <t xml:space="preserve">functional testing - respiratory chain panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homocysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creatine metabolites/creatine panel</t>
   </si>
   <si>
     <t xml:space="preserve">urine, blood, CSF, other</t>
@@ -1178,13 +1216,13 @@
     <t xml:space="preserve">other </t>
   </si>
   <si>
-    <t xml:space="preserve">Diagnostic</t>
+    <t xml:space="preserve">Diagnostic (non-DNA)</t>
   </si>
   <si>
     <t xml:space="preserve">Biochemistry - General</t>
   </si>
   <si>
-    <t xml:space="preserve">Blood gas, Glucose, Sodium, Potassium, Chloride, Total CO2, Ammonia, Bilirubin conjugated, Bilirubin unconjugated, Calcium, Creatine, Magnesium, Phosphate, other</t>
+    <t xml:space="preserve">blood gas, glucose, sodium, potassium, chloride, total CO2, ammonia, bilirubin conjugated, bilirubin unconjugated, calcium, creatine, magnesium, phosphate, other</t>
   </si>
   <si>
     <t xml:space="preserve">Enzymes</t>
@@ -1196,19 +1234,19 @@
     <t xml:space="preserve">Proteins</t>
   </si>
   <si>
-    <t xml:space="preserve">Albumin, IgG, IgA, IgM, other</t>
+    <t xml:space="preserve">albumin, IgG, IgA, IgM, other</t>
   </si>
   <si>
     <t xml:space="preserve">Lipids</t>
   </si>
   <si>
-    <t xml:space="preserve">Cholesterol total, HDL cholesterol, LDL cholesterol, Triglyceride, other</t>
+    <t xml:space="preserve">cholesterol total, HDL cholesterol, LDL cholesterol, triglyceride, other</t>
   </si>
   <si>
     <t xml:space="preserve">Hematology</t>
   </si>
   <si>
-    <t xml:space="preserve">CBC, Differential, Retic Count, Sickle test, Hemaglobin analysis, PTT, Fibrinogen, Factor V, Factor VIII, Factor IX, Antithrombin, Thrombin time, Protein C, Protein S, VWF Antigen, VWF Activity, other</t>
+    <t xml:space="preserve">CBC, Differential, Retic Count, Sickle test, Hemaglobin analysis, PTT, Fibrinogen, Factor V, Factor VIII, Factor IX, Antithrombin, thrombin time, Protein C, Protein S, VWF Antigen, VWF Activity, other</t>
   </si>
   <si>
     <t xml:space="preserve">Special Chemistry</t>
@@ -1217,15 +1255,240 @@
     <t xml:space="preserve">Alpha Fetoprotein, Ferritin, Iron, Transferrin, FSH, PTH, Thyroxine (Free T4), Triiodothronine (T3), Total, TSH, Folate, Vit B12, Vit E, other</t>
   </si>
   <si>
+    <t xml:space="preserve">Infectious disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORCH, rubella, toxoplasmosis, other</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pathology </t>
   </si>
   <si>
-    <t xml:space="preserve">Muscle biopsy, Skin biopsy, Autopsy, other</t>
+    <t xml:space="preserve">muscle biopsy, skin biopsy, autopsy, other</t>
   </si>
   <si>
     <t xml:space="preserve">Imaging </t>
   </si>
   <si>
+    <t xml:space="preserve">skeletal survey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR imaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head, spine, abdomen, chest, heart, other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR spectroscopy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brain, liver, other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-Ray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mammogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colonoscopy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 hr holter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date data entered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULE B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If 'Y', DATE PURSUED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date patient seen/result reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ongoing follow up with genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In &lt; 6 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y/No is internal default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 6 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1 yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In &gt;2 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-specialist care </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allergy/Immunology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermatology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developmental Peds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endocrinology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastroenterology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gynecology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nephrology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurosurgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophthalmology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orthopedics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palliative care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmacology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phys Medicine &amp; Rehab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respirology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheumatology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thoracic Surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vascular Surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allied health care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dietetics/Nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Care </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupational Therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physiotherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speech Language </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imaging for the purpose of screening or surveillance or </t>
+  </si>
+  <si>
     <t xml:space="preserve">Skeletal survey </t>
   </si>
   <si>
@@ -1235,208 +1498,16 @@
     <t xml:space="preserve">Bone density</t>
   </si>
   <si>
-    <t xml:space="preserve">MR imaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">head, spine, abdomen, chest, heart, other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR spectroscopy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brain, liver, other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U/S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-Ray</t>
-  </si>
-  <si>
     <t xml:space="preserve">Echo</t>
   </si>
   <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrical activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 hr holter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date data entered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODULE B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If 'Y', DATE PURSUED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date patient seen/result reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongoing follow up with genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in 6 months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y/No is internal default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in 1 yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in 2 yrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in &gt;2 yrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-specialist care </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allergy/Immunology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronic Pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dentistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dermatology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developmental Peds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endocrinology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gastroenterology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gynecology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nephrology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurosurgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ophthalmology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orthopedics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palliative care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmacology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phys Medicine &amp; Rehab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plastics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychiatry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respirology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheumatology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sports Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thoracic Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vascular Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allied health care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dietetics/Nutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Care </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupational Therapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physiotherapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speech Language </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongoing surveillance or monitoring via imaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongoing electrical surveillance or monitoring </t>
+    <t xml:space="preserve">Mammogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colonoscopy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical tests for the purpose of screening or surveillance </t>
   </si>
   <si>
     <t xml:space="preserve">Therapeutic option</t>
@@ -1457,7 +1528,28 @@
     <t xml:space="preserve">accessible to patient, not accessible</t>
   </si>
   <si>
-    <t xml:space="preserve">none</t>
+    <t xml:space="preserve">Inpatient visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-5 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-10 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-14 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;2 weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;4 weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency department visit</t>
   </si>
   <si>
     <t xml:space="preserve">specify</t>
@@ -1539,7 +1631,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1579,12 +1671,27 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1592,13 +1699,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <u val="single"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1784,7 +1892,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1825,6 +1933,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1833,54 +1945,58 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1929,6 +2045,14 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1937,6 +2061,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1981,8 +2109,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2134,17 +2270,17 @@
   </sheetPr>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,49 +2308,48 @@
       <c r="D3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="0"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,266 +2361,266 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="11" t="s">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="11" t="s">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="11" t="s">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="11" t="s">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15" t="s">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="11" t="s">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="11" t="s">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="11" t="s">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="11" t="s">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15" t="s">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="11" t="s">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="11" t="s">
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="11" t="s">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="13" t="s">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="s">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+    <row r="28" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16" t="s">
+    <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
+    <row r="30" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="17" t="s">
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="17" t="s">
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15" t="s">
+    <row r="34" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="17" t="s">
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="17" t="s">
+    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15" t="s">
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="37.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2496,131 +2631,131 @@
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="14"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" s="11" customFormat="true" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20" t="s">
+    <row r="44" s="12" customFormat="true" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" s="12" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="15"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" s="11" customFormat="true" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="s">
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" s="12" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="16"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" s="12" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
+      <c r="B47" s="23"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" s="12" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" s="12" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" s="11" customFormat="true" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23" t="s">
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" s="12" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="23"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23" t="s">
+    <row r="53" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="23"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>42</v>
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
+    <row r="59" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21" t="s">
-        <v>52</v>
-      </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D62" s="1"/>
     </row>
@@ -2641,718 +2776,704 @@
     <tabColor rgb="FFE6B9B8"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="21.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="21.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="28" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>56</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="1"/>
+      <c r="F3" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="30" t="s">
+      <c r="G3" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="80" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>57</v>
+      <c r="F4" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>57</v>
+      <c r="F5" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="F6" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="F7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="0"/>
-      <c r="F8" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="0"/>
-      <c r="F9" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>57</v>
+      <c r="D9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="F10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="0"/>
-      <c r="F10" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="F11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="0"/>
-      <c r="F11" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="0"/>
-      <c r="F12" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="0"/>
-      <c r="F13" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>57</v>
+      <c r="D13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="0"/>
-      <c r="F14" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>57</v>
+      <c r="F14" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="0"/>
-      <c r="F16" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>57</v>
+      <c r="D16" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="F17" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="0"/>
-      <c r="F17" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="35"/>
+      <c r="F18" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="79" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="79" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
+      <c r="B19" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="C19" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="1"/>
+      <c r="F19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="33" t="s">
+      <c r="C20" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="1"/>
+      <c r="F20" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="33" t="s">
+      <c r="C21" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="D21" s="1"/>
+      <c r="F21" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="33" t="s">
+      <c r="C22" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="D22" s="1"/>
+      <c r="F22" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="33" t="s">
+      <c r="C23" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="D23" s="1"/>
+      <c r="F23" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="33" t="s">
+      <c r="C24" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="D24" s="1"/>
+      <c r="F24" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="32" t="s">
+      <c r="C25" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="D25" s="1"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="36" t="s">
+      <c r="C26" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1"/>
+      <c r="F26" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="37"/>
       <c r="C27" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="37"/>
+      <c r="F27" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="41"/>
       <c r="C28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="37"/>
+      <c r="F28" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="41"/>
       <c r="C29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="1"/>
+      <c r="F29" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="41"/>
+      <c r="C30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="0"/>
-      <c r="F29" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="37"/>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="41"/>
+      <c r="C31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="0"/>
-      <c r="F30" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="37"/>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="0"/>
-      <c r="F31" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="37"/>
+      <c r="F31" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="41"/>
       <c r="C32" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="0"/>
-      <c r="F32" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="37"/>
+        <v>108</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="41"/>
       <c r="C33" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="0"/>
-      <c r="F33" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="37"/>
+        <v>108</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="41"/>
       <c r="C34" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="37"/>
-      <c r="C35" s="13" t="s">
+      <c r="D34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="41"/>
+      <c r="C35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="38" t="s">
+      <c r="D35" s="1"/>
+      <c r="F35" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="41"/>
+      <c r="C36" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="41"/>
+      <c r="C37" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="37"/>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="41"/>
+      <c r="C38" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="37"/>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="41"/>
+      <c r="F38" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="37"/>
       <c r="C39" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="37"/>
+      <c r="F39" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="41"/>
       <c r="C40" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="37"/>
+      <c r="F40" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="41"/>
       <c r="C41" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="37"/>
+      <c r="F41" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="41"/>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="41" t="s">
+      <c r="F42" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="41"/>
+      <c r="C43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44" t="s">
-        <v>57</v>
+      <c r="D43" s="1"/>
+      <c r="F43" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="41"/>
+      <c r="C44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="F44" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="41"/>
+      <c r="C45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="F45" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="F46" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3372,947 +3493,1064 @@
     <tabColor rgb="FF9BBB59"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C73" activeCellId="0" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="20.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>125</v>
+      <c r="A1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>56</v>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>128</v>
+      <c r="A4" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="13" t="s">
-        <v>130</v>
+      <c r="D4" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="13" t="s">
-        <v>131</v>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31"/>
+      <c r="B6" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29"/>
-      <c r="B7" s="13" t="s">
-        <v>132</v>
+      <c r="D6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31"/>
+      <c r="B7" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29"/>
-      <c r="B8" s="13" t="s">
-        <v>114</v>
+      <c r="D7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31"/>
+      <c r="B8" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>134</v>
+      <c r="D8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31"/>
+      <c r="B9" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48"/>
+      <c r="D9" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31" t="s">
+        <v>137</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48"/>
+      <c r="D10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="53"/>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48"/>
+      <c r="D11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="53"/>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48"/>
+      <c r="D12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="53"/>
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="48"/>
+      <c r="D13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="53"/>
       <c r="B14" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48"/>
+      <c r="D14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="53"/>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="48"/>
+      <c r="D15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="53"/>
       <c r="B16" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="48"/>
+      <c r="D16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="53"/>
       <c r="B17" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="48"/>
+      <c r="D17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="53"/>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="48"/>
+      <c r="D18" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="53"/>
       <c r="B19" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="48"/>
+      <c r="D19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="53"/>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="48"/>
+      <c r="D20" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="53"/>
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="48"/>
+      <c r="D21" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="53"/>
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="48"/>
+      <c r="D22" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="53"/>
       <c r="B23" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="48"/>
+      <c r="D23" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="53"/>
       <c r="B24" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="48"/>
+      <c r="D24" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="53"/>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="48"/>
+      <c r="D25" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="53"/>
       <c r="B26" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="48"/>
+      <c r="D26" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="53"/>
       <c r="B27" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="48"/>
+      <c r="D27" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="53"/>
       <c r="B28" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="48"/>
+      <c r="D28" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="53"/>
       <c r="B29" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="48"/>
+      <c r="D29" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="53"/>
       <c r="B30" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="48"/>
+      <c r="D30" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="53"/>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48"/>
+      <c r="D31" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="53"/>
       <c r="B32" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="48"/>
+      <c r="D32" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="53"/>
       <c r="B33" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="48"/>
+      <c r="D33" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="53"/>
       <c r="B34" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="48"/>
+      <c r="D34" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="53"/>
       <c r="B35" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="48"/>
+      <c r="D35" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="53"/>
       <c r="B36" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="48"/>
+      <c r="D36" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="53"/>
       <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="48"/>
+      <c r="D37" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="53"/>
       <c r="B38" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="48"/>
+      <c r="D38" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="53"/>
       <c r="B39" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29" t="s">
-        <v>164</v>
-      </c>
+      <c r="D39" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="53"/>
       <c r="B40" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="48"/>
+      <c r="D40" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="31" t="s">
+        <v>168</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="48"/>
+      <c r="D41" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="53"/>
       <c r="B42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="53"/>
+      <c r="B43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="53"/>
+      <c r="B44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="53"/>
+      <c r="B45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="53"/>
+      <c r="B46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="53"/>
+      <c r="B47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="53"/>
+      <c r="B48" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="48"/>
-      <c r="B43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="48"/>
-      <c r="B44" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="48"/>
-      <c r="B45" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="48"/>
-      <c r="B46" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="48"/>
-      <c r="B47" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="48"/>
-      <c r="B49" s="13" t="s">
-        <v>104</v>
+      <c r="D48" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="48"/>
-      <c r="B50" s="13" t="s">
-        <v>105</v>
+      <c r="D49" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="53"/>
+      <c r="B50" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="48"/>
-      <c r="B51" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="D50" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="53"/>
+      <c r="B51" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="53"/>
+      <c r="B52" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="48"/>
-      <c r="B52" s="13" t="s">
+      <c r="C52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="53"/>
+      <c r="B53" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="48"/>
-      <c r="B53" s="13" t="s">
+      <c r="C53" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="48"/>
-      <c r="B54" s="13" t="s">
+      <c r="D53" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="53"/>
+      <c r="B54" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="48"/>
-      <c r="B55" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="53"/>
+      <c r="B55" s="14" t="s">
         <v>112</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="48"/>
-      <c r="B56" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="53"/>
+      <c r="B56" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="48"/>
-      <c r="B57" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>116</v>
+      <c r="C56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="53"/>
+      <c r="B57" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="53"/>
+      <c r="B58" s="55" t="s">
+        <v>181</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="47" t="s">
-        <v>57</v>
-      </c>
+      <c r="D58" s="32"/>
+      <c r="E58" s="52"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="48"/>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
+      <c r="A59" s="53"/>
+      <c r="B59" s="55" t="s">
+        <v>182</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="48"/>
-      <c r="B60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E60" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="48"/>
-      <c r="B61" s="1" t="s">
+      <c r="D59" s="32"/>
+      <c r="E59" s="52"/>
+    </row>
+    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="53"/>
+      <c r="B60" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>119</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="48"/>
+      <c r="D61" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="53"/>
       <c r="B62" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="48"/>
+      <c r="D62" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="53"/>
       <c r="B63" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="48"/>
+      <c r="D63" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="53"/>
       <c r="B64" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="29" t="s">
-        <v>174</v>
-      </c>
+      <c r="D64" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="53"/>
       <c r="B65" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="29"/>
+        <v>123</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="53"/>
       <c r="B66" s="1" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E66" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="29"/>
+      <c r="D66" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="53"/>
       <c r="B67" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E67" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="29"/>
+        <v>125</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="31" t="s">
+        <v>184</v>
+      </c>
       <c r="B68" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="29"/>
+        <v>185</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="31"/>
       <c r="B69" s="1" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="51" t="s">
-        <v>64</v>
+      <c r="D69" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="31"/>
+      <c r="B70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="E70" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="31"/>
+      <c r="B71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="31"/>
+      <c r="B72" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="56"/>
+      <c r="B74" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="56"/>
+      <c r="B75" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="56"/>
+      <c r="B76" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="56"/>
+      <c r="B77" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="56"/>
+      <c r="B78" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="45"/>
+      <c r="D80" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="59" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4335,91 +4573,91 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="34.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="34.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="57" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
+    <row r="1" s="64" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="52"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="59"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4440,133 +4678,133 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="17.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="64"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="71"/>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>218</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>220</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>57</v>
+        <v>221</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/resources/vocabulary-source-generation/src/main/resources/Care_Pathway_Data_Elements.xlsx
+++ b/resources/vocabulary-source-generation/src/main/resources/Care_Pathway_Data_Elements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CARE PATHWAY" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="209">
   <si>
     <t xml:space="preserve">PRE TEST (at the time WES is ordered)</t>
   </si>
@@ -68,7 +68,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -80,9 +80,9 @@
         <b val="true"/>
         <i val="true"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">other </t>
@@ -91,7 +91,7 @@
       <rPr>
         <b val="true"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -101,12 +101,12 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> has your patient had in the past 1 year?</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> has your patient had in the past?</t>
     </r>
   </si>
   <si>
@@ -129,7 +129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">not</t>
@@ -203,7 +203,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">MODULE B - only date of data entry is required</t>
+    <t xml:space="preserve">MODULE B - only date of data entry is required; </t>
   </si>
   <si>
     <t xml:space="preserve">POST TEST (within 1 week of reporting results to patient)</t>
@@ -366,7 +366,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">diagnostic</t>
@@ -390,7 +390,19 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">did not</t>
+      <t xml:space="preserve">did </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">NOT</t>
     </r>
     <r>
       <rPr>
@@ -441,7 +453,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">partially-diagnostic</t>
@@ -685,7 +697,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">partially diagnostic</t>
@@ -744,9 +756,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">MODULE B - </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -763,7 +772,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">non-diagnostic</t>
@@ -1106,7 +1115,36 @@
     <t xml:space="preserve">Molecular </t>
   </si>
   <si>
-    <t xml:space="preserve">Known mutation, Single gene, Gene panel, Clinical exome sequencing singleton, Epigenetic testing (i.e. methylation study), other</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Known mutation, Single gene, Gene panel/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">custom panel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Clinical exome sequencing singleton, Epigenetic testing (i.e. methylation study), other</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Y/N</t>
@@ -1178,13 +1216,7 @@
     <t xml:space="preserve">other </t>
   </si>
   <si>
-    <t xml:space="preserve">Diagnostic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biochemistry - General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood gas, Glucose, Sodium, Potassium, Chloride, Total CO2, Ammonia, Bilirubin conjugated, Bilirubin unconjugated, Calcium, Creatine, Magnesium, Phosphate, other</t>
+    <t xml:space="preserve">Diagnostic (non-DNA)</t>
   </si>
   <si>
     <t xml:space="preserve">Enzymes</t>
@@ -1196,7 +1228,7 @@
     <t xml:space="preserve">Proteins</t>
   </si>
   <si>
-    <t xml:space="preserve">Albumin, IgG, IgA, IgM, other</t>
+    <t xml:space="preserve">albumin, IgG, IgA, IgM, other</t>
   </si>
   <si>
     <t xml:space="preserve">Lipids</t>
@@ -1211,10 +1243,16 @@
     <t xml:space="preserve">CBC, Differential, Retic Count, Sickle test, Hemaglobin analysis, PTT, Fibrinogen, Factor V, Factor VIII, Factor IX, Antithrombin, Thrombin time, Protein C, Protein S, VWF Antigen, VWF Activity, other</t>
   </si>
   <si>
-    <t xml:space="preserve">Special Chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha Fetoprotein, Ferritin, Iron, Transferrin, FSH, PTH, Thyroxine (Free T4), Triiodothronine (T3), Total, TSH, Folate, Vit B12, Vit E, other</t>
+    <t xml:space="preserve">Chemistry/Biochemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood gas, Glucose, Sodium, Potassium, Chloride, Total CO2, Ammonia, Bilirubin conjugated, Bilirubin unconjugated, Calcium, Creatine, Magnesium, Phosphate, Alpha Fetoprotein, Ferritin, Iron, Transferrin, FSH, PTH, Thyroxine (Free T4), Triiodothronine (T3), Total, TSH, Folate, Vit B12, Vit E, other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infectious disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORCH, Rubella, Toxoplasmosis, other</t>
   </si>
   <si>
     <t xml:space="preserve">Pathology </t>
@@ -1259,6 +1297,12 @@
     <t xml:space="preserve">Echo</t>
   </si>
   <si>
+    <t xml:space="preserve">Mammogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colonoscopy</t>
+  </si>
+  <si>
     <t xml:space="preserve">other</t>
   </si>
   <si>
@@ -1298,181 +1342,190 @@
     <t xml:space="preserve">date patient seen/result reported</t>
   </si>
   <si>
-    <t xml:space="preserve">Ongoing follow up with genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in 6 months</t>
+    <t xml:space="preserve">Sub-specialist care </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allergy/Immunology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic Pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermatology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developmental Peds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endocrinology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastroenterology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gynecology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nephrology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurosurgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophthalmology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orthopedics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palliative care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmacology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phys Medicine &amp; Rehab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respirology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheumatology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thoracic Surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vascular Surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allied health care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dietetics/Nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Care </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupational Therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physiotherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speech Language </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imaging for the purpose of screening or surveillance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical tests for the purpose of screening or surveillance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therapeutic option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approved drug available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prescribed, not prescribed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approved drug unavailable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical trial available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accessible to patient, not accessible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpatient visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-5 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-10 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-14 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;2 weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;4 weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency department visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pursued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If 'Y', date pursued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic counselling for family members </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother, father, sibling, extended family</t>
   </si>
   <si>
     <t xml:space="preserve">Y/No is internal default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in 1 yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in 2 yrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in &gt;2 yrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-specialist care </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allergy/Immunology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronic Pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dentistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dermatology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developmental Peds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endocrinology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gastroenterology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gynecology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nephrology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurosurgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ophthalmology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orthopedics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palliative care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmacology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phys Medicine &amp; Rehab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plastics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychiatry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respirology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheumatology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sports Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thoracic Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vascular Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allied health care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dietetics/Nutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Care </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupational Therapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physiotherapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speech Language </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongoing surveillance or monitoring via imaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongoing electrical surveillance or monitoring </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therapeutic option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approved drug available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prescribed, not prescribed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approved drug unavailable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinical trial available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accessible to patient, not accessible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pursued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If 'Y', date pursued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genetic counselling for family members </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mother, father, sibling, extended family</t>
   </si>
   <si>
     <t xml:space="preserve">Cascade testing for family members</t>
@@ -1539,7 +1592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1579,20 +1632,27 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <b val="true"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1604,10 +1664,34 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1784,7 +1868,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1825,6 +1909,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1833,54 +1921,58 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1929,6 +2021,18 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1937,6 +2041,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1981,8 +2089,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2117,7 +2237,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF1F497D"/>
       <rgbColor rgb="FF333333"/>
@@ -2134,17 +2254,17 @@
   </sheetPr>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,49 +2292,48 @@
       <c r="D3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="0"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,266 +2345,266 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="11" t="s">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="11" t="s">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="11" t="s">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="11" t="s">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15" t="s">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="11" t="s">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="11" t="s">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="11" t="s">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="11" t="s">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15" t="s">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="11" t="s">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="11" t="s">
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="11" t="s">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="13" t="s">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="s">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+    <row r="28" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16" t="s">
+    <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
+    <row r="30" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="17" t="s">
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="17" t="s">
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15" t="s">
+    <row r="34" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="17" t="s">
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="17" t="s">
+    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15" t="s">
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="37.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2496,131 +2615,131 @@
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="14"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" s="11" customFormat="true" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20" t="s">
+    <row r="44" s="12" customFormat="true" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" s="12" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="15"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" s="11" customFormat="true" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="s">
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" s="12" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="16"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" s="12" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
+      <c r="B47" s="23"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" s="12" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" s="12" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" s="11" customFormat="true" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23" t="s">
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" s="12" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="23"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="25.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23" t="s">
+    <row r="53" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="23"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>42</v>
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>43</v>
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
+    <row r="59" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21" t="s">
-        <v>52</v>
-      </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D62" s="1"/>
     </row>
@@ -2641,720 +2760,692 @@
     <tabColor rgb="FFE6B9B8"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="21.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="21.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="28" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>56</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="1"/>
+      <c r="F3" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="30" t="s">
+      <c r="G3" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="80" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>57</v>
+      <c r="F4" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>57</v>
+      <c r="F5" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="F6" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="F7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="0"/>
-      <c r="F8" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="0"/>
-      <c r="F9" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>57</v>
+      <c r="D9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="F10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="0"/>
-      <c r="F10" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="F11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="0"/>
-      <c r="F11" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="0"/>
-      <c r="F12" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="0"/>
-      <c r="F13" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>57</v>
+      <c r="D13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="0"/>
-      <c r="F14" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>57</v>
+      <c r="F14" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="0"/>
-      <c r="F16" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>57</v>
+      <c r="D16" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="F17" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="0"/>
-      <c r="F17" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="35"/>
+      <c r="F18" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="79" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
+      <c r="B19" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="C19" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="1"/>
+      <c r="F19" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="33" t="s">
+      <c r="C20" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="1"/>
+      <c r="F20" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="33" t="s">
+      <c r="C21" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="D21" s="1"/>
+      <c r="F21" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="33" t="s">
+      <c r="C22" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="D22" s="1"/>
+      <c r="F22" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="33" t="s">
+      <c r="C23" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="D23" s="1"/>
+      <c r="F23" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="33" t="s">
+      <c r="C24" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="D24" s="1"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="32" t="s">
+      <c r="C25" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="D25" s="1"/>
+      <c r="F25" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="36" t="s">
+      <c r="C26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1"/>
+      <c r="F26" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="42"/>
+      <c r="C27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="37"/>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1"/>
+      <c r="F27" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="42"/>
+      <c r="C28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="37"/>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1"/>
+      <c r="F28" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="42"/>
+      <c r="C29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="37"/>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="42"/>
+      <c r="C30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="0"/>
-      <c r="F29" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="37"/>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="42"/>
+      <c r="C31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="0"/>
-      <c r="F30" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="37"/>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="42"/>
+      <c r="C32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="0"/>
-      <c r="F31" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="37"/>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="42"/>
+      <c r="C33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="0"/>
-      <c r="F32" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="37"/>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="42"/>
+      <c r="C34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="0"/>
-      <c r="F33" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="37"/>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1"/>
+      <c r="F34" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="42"/>
+      <c r="C35" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="37"/>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="1"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="42"/>
+      <c r="C36" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="38" t="s">
+      <c r="D36" s="1"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="42"/>
+      <c r="C37" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D37" s="42"/>
+      <c r="F37" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="37"/>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="37"/>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1"/>
+      <c r="F38" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="42"/>
+      <c r="C39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="37"/>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1"/>
+      <c r="F39" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="42"/>
+      <c r="C40" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="37"/>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1"/>
+      <c r="F40" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="42"/>
+      <c r="C41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="37"/>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1"/>
+      <c r="F41" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="42"/>
+      <c r="C42" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="37"/>
-      <c r="C42" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="39" t="s">
+      <c r="F42" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="42"/>
+      <c r="C43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="41" t="s">
+      <c r="D43" s="1"/>
+      <c r="F43" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="42"/>
+      <c r="C44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="F44" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44" t="s">
-        <v>57</v>
-      </c>
-    </row>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="F45" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3372,949 +3463,1012 @@
     <tabColor rgb="FF9BBB59"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="20.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="46" t="s">
+      <c r="A1" s="27" t="s">
         <v>125</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>56</v>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
         <v>128</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="13" t="s">
+      <c r="D4" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="54"/>
+      <c r="B5" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="13" t="s">
+      <c r="D5" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="54"/>
+      <c r="B6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29"/>
-      <c r="B7" s="13" t="s">
+      <c r="D6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="54"/>
+      <c r="B7" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29"/>
-      <c r="B8" s="13" t="s">
-        <v>114</v>
+      <c r="D7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="54"/>
+      <c r="B8" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>133</v>
-      </c>
+      <c r="D8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="54"/>
       <c r="B9" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48"/>
+      <c r="D9" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="54"/>
       <c r="B10" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48"/>
+      <c r="D10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="54"/>
       <c r="B11" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48"/>
+      <c r="D11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="54"/>
       <c r="B12" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48"/>
+      <c r="D12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="54"/>
       <c r="B13" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>57</v>
+      <c r="D13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="48"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="55" t="s">
         <v>139</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48"/>
+      <c r="D14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="54"/>
       <c r="B15" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="48"/>
+      <c r="D15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="54"/>
       <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="54"/>
+      <c r="B17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="48"/>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="54"/>
+      <c r="B18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="48"/>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="54"/>
+      <c r="B19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="48"/>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="54"/>
+      <c r="B20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="48"/>
-      <c r="B20" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="48"/>
+      <c r="D20" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="54"/>
       <c r="B21" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="48"/>
+      <c r="D21" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="54"/>
       <c r="B22" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="48"/>
+      <c r="D22" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="54"/>
       <c r="B23" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="48"/>
+      <c r="D23" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="54"/>
       <c r="B24" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="48"/>
+      <c r="D24" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="54"/>
       <c r="B25" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="48"/>
+      <c r="D25" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="54"/>
       <c r="B26" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="48"/>
+      <c r="D26" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="54"/>
       <c r="B27" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="48"/>
+      <c r="D27" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="54"/>
       <c r="B28" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="48"/>
+      <c r="D28" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="54"/>
       <c r="B29" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="48"/>
+      <c r="D29" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="54"/>
       <c r="B30" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="48"/>
+      <c r="D30" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="54"/>
       <c r="B31" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48"/>
+      <c r="D31" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="54"/>
       <c r="B32" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="48"/>
+      <c r="D32" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="54"/>
       <c r="B33" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="48"/>
+      <c r="D33" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="54"/>
       <c r="B34" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="48"/>
+      <c r="D34" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="54"/>
       <c r="B35" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="48"/>
+      <c r="D35" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="31" t="s">
+        <v>160</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="48"/>
+      <c r="D36" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="54"/>
       <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="48"/>
+      <c r="D37" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="54"/>
       <c r="B38" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="48"/>
+      <c r="D38" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="54"/>
       <c r="B39" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29" t="s">
-        <v>164</v>
-      </c>
+      <c r="D39" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="54"/>
       <c r="B40" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="48"/>
+      <c r="D40" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="54"/>
       <c r="B41" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="48"/>
+      <c r="D41" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="54"/>
       <c r="B42" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="48"/>
+      <c r="D42" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="54"/>
       <c r="B43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="48"/>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="54"/>
+      <c r="B45" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="54"/>
+      <c r="B46" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="54"/>
+      <c r="B47" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="54"/>
+      <c r="B48" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="54"/>
+      <c r="B49" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="54"/>
+      <c r="B50" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="54"/>
+      <c r="B51" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="54"/>
+      <c r="B52" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="54"/>
+      <c r="B53" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="53"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="54"/>
+      <c r="B54" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="53"/>
+    </row>
+    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="54"/>
+      <c r="B55" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="42"/>
+      <c r="D55" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="48"/>
-      <c r="B45" s="1" t="s">
+      <c r="B56" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="54"/>
+      <c r="B57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="54"/>
+      <c r="B58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="54"/>
+      <c r="B59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="54"/>
+      <c r="B60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="54"/>
+      <c r="B61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="54"/>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="48"/>
-      <c r="B46" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="48"/>
-      <c r="B47" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="49" t="s">
+      <c r="C63" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="48"/>
-      <c r="B49" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="48"/>
-      <c r="B50" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="48"/>
-      <c r="B51" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="48"/>
-      <c r="B52" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="48"/>
-      <c r="B53" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="48"/>
-      <c r="B54" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="48"/>
-      <c r="B55" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="48"/>
-      <c r="B56" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="48"/>
-      <c r="B57" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="49" t="s">
+      <c r="D63" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="31"/>
+      <c r="B64" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="48"/>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="48"/>
-      <c r="B60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E60" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="48"/>
-      <c r="B61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="48"/>
-      <c r="B62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="48"/>
-      <c r="B63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="48"/>
-      <c r="B64" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="29" t="s">
+      <c r="D64" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="31"/>
+      <c r="B65" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="31"/>
+      <c r="B66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="31"/>
+      <c r="B67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="D65" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="29"/>
-      <c r="B66" s="1" t="s">
+      <c r="B68" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E66" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="29"/>
-      <c r="B67" s="1" t="s">
+      <c r="C68" s="1"/>
+      <c r="D68" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="58"/>
+      <c r="B69" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C69" s="1"/>
+      <c r="D69" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="58"/>
+      <c r="B70" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E67" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="29"/>
-      <c r="B68" s="1" t="s">
+      <c r="C70" s="1"/>
+      <c r="D70" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="58"/>
+      <c r="B71" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="29"/>
-      <c r="B69" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="50" t="s">
+      <c r="C71" s="1"/>
+      <c r="D71" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="58"/>
+      <c r="B72" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" s="52" t="s">
-        <v>57</v>
-      </c>
-    </row>
+      <c r="C72" s="1"/>
+      <c r="D72" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="58"/>
+      <c r="B73" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="46"/>
+      <c r="D75" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4335,91 +4489,91 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="34.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="34.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="57" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
+    <row r="1" s="66" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+      <c r="D1" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
+      <c r="B2" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="52"/>
+      <c r="C2" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="61"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4440,133 +4594,133 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="17.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="64"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="73"/>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>206</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>57</v>
+        <v>208</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/resources/vocabulary-source-generation/src/main/resources/Care_Pathway_Data_Elements.xlsx
+++ b/resources/vocabulary-source-generation/src/main/resources/Care_Pathway_Data_Elements.xlsx
@@ -402,7 +402,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">not</t>
+      <t xml:space="preserve">NOT</t>
     </r>
     <r>
       <rPr>
@@ -2271,7 +2271,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3495,8 +3495,8 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C73" activeCellId="0" sqref="C73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
